--- a/Описание команд Сервера ТД.xlsx
+++ b/Описание команд Сервера ТД.xlsx
@@ -121,9 +121,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,13 +155,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,156 +488,156 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
